--- a/output/udbred_poten_kt_Goedn_år.xlsx
+++ b/output/udbred_poten_kt_Goedn_år.xlsx
@@ -493,7 +493,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>12567.5623329173</v>
+        <v>12253.3732745944</v>
       </c>
     </row>
     <row r="10">
@@ -581,7 +581,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>11990.9270106608</v>
+        <v>11122.1625037403</v>
       </c>
     </row>
     <row r="18">
@@ -603,7 +603,7 @@
         <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>14988.6587633261</v>
+        <v>13902.7031296754</v>
       </c>
     </row>
     <row r="20">
@@ -625,7 +625,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>14988.6587633261</v>
+        <v>13902.7031296754</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>14988.6587633261</v>
+        <v>13902.7031296754</v>
       </c>
     </row>
     <row r="24">

--- a/output/udbred_poten_kt_Goedn_år.xlsx
+++ b/output/udbred_poten_kt_Goedn_år.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Scenarie</t>
   </si>
@@ -20,7 +20,10 @@
     <t xml:space="preserve">Dyr</t>
   </si>
   <si>
-    <t xml:space="preserve">TotGoednabDyr_kt_år</t>
+    <t xml:space="preserve">TotGoednabDyr_kt_år_pot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotGoedningabDyr_kt_år_udbr</t>
   </si>
   <si>
     <t xml:space="preserve">biogas</t>
@@ -407,258 +410,330 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>12567.5623329173</v>
       </c>
+      <c r="D2" t="n">
+        <v>3141.89058322933</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>10746.0999638823</v>
       </c>
+      <c r="D3" t="n">
+        <v>4827.9579547877</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>15709.4529161466</v>
       </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>15574.05791867</v>
       </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>15352.3363653232</v>
       </c>
+      <c r="D6" t="n">
+        <v>357.1165508235</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>6850.87325992317</v>
       </c>
+      <c r="D7" t="n">
+        <v>451.114122566825</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>14730.5081101332</v>
       </c>
+      <c r="D8" t="n">
+        <v>978.944806013418</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>12253.3732745944</v>
       </c>
+      <c r="D9" t="n">
+        <v>3456.07964155226</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>15709.4529161466</v>
       </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>15574.05791867</v>
       </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
         <v>10571.530990656</v>
       </c>
+      <c r="D12" t="n">
+        <v>1085.95563365066</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
         <v>15709.4529161466</v>
       </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
         <v>15574.05791867</v>
       </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
         <v>13902.7031296754</v>
       </c>
+      <c r="D15" t="n">
+        <v>1085.95563365066</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
         <v>7301.98738249</v>
       </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
         <v>11122.1625037403</v>
       </c>
+      <c r="D17" t="n">
+        <v>3866.49625958574</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
         <v>5038.3712939181</v>
       </c>
+      <c r="D18" t="n">
+        <v>2263.6160885719</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
         <v>13902.7031296754</v>
       </c>
+      <c r="D19" t="n">
+        <v>1085.95563365066</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
         <v>7301.98738249</v>
       </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
         <v>13902.7031296754</v>
       </c>
+      <c r="D21" t="n">
+        <v>1085.95563365066</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" t="n">
         <v>7301.98738249</v>
       </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23" t="n">
         <v>13902.7031296754</v>
       </c>
+      <c r="D23" t="n">
+        <v>1085.95563365066</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="n">
         <v>7301.98738249</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/udbred_poten_kt_Goedn_år.xlsx
+++ b/output/udbred_poten_kt_Goedn_år.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">Scenarie</t>
   </si>
@@ -20,10 +20,7 @@
     <t xml:space="preserve">Dyr</t>
   </si>
   <si>
-    <t xml:space="preserve">TotGoednabDyr_kt_år_pot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotGoedningabDyr_kt_år_udbr</t>
+    <t xml:space="preserve">TotGoednabDyr_kt_år</t>
   </si>
   <si>
     <t xml:space="preserve">biogas</t>
@@ -410,330 +407,258 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>12567.5623329173</v>
       </c>
-      <c r="D2" t="n">
-        <v>3141.89058322933</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>10746.0999638823</v>
       </c>
-      <c r="D3" t="n">
-        <v>4827.9579547877</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>15709.4529161466</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>15574.05791867</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>15352.3363653232</v>
       </c>
-      <c r="D6" t="n">
-        <v>357.1165508235</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>6850.87325992317</v>
       </c>
-      <c r="D7" t="n">
-        <v>451.114122566825</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>14730.5081101332</v>
       </c>
-      <c r="D8" t="n">
-        <v>978.944806013418</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>12253.3732745944</v>
       </c>
-      <c r="D9" t="n">
-        <v>3456.07964155226</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>15709.4529161466</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>15574.05791867</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>10571.530990656</v>
       </c>
-      <c r="D12" t="n">
-        <v>1085.95563365066</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>15709.4529161466</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>15574.05791867</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>13902.7031296754</v>
       </c>
-      <c r="D15" t="n">
-        <v>1085.95563365066</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
         <v>7301.98738249</v>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
         <v>11122.1625037403</v>
       </c>
-      <c r="D17" t="n">
-        <v>3866.49625958574</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
         <v>5038.3712939181</v>
       </c>
-      <c r="D18" t="n">
-        <v>2263.6160885719</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
         <v>13902.7031296754</v>
       </c>
-      <c r="D19" t="n">
-        <v>1085.95563365066</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
         <v>7301.98738249</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
         <v>13902.7031296754</v>
       </c>
-      <c r="D21" t="n">
-        <v>1085.95563365066</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="n">
         <v>7301.98738249</v>
       </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" t="n">
         <v>13902.7031296754</v>
       </c>
-      <c r="D23" t="n">
-        <v>1085.95563365066</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="n">
         <v>7301.98738249</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/udbred_poten_kt_Goedn_år.xlsx
+++ b/output/udbred_poten_kt_Goedn_år.xlsx
@@ -1,82 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2025-KVIK/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_C2CE303C0009E1CDF0063EE4FFD22BD1A299A7A1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1915DB2F-D1B9-4977-A14B-A604CD7F554C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t xml:space="preserve">Scenarie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dyr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotGoednabDyr_kt_år_pot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotGoedningabDyr_kt_år_udbr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biogas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">svin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kvæg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fakkel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forsuring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">køling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">køling_biogas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lavdosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linespil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oxidation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ugentlig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ugentlig_biogas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ugentlig_fakkel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ugentlig_lavdosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ugentlig_oxidation</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
+  <si>
+    <t>Scenarie</t>
+  </si>
+  <si>
+    <t>Dyr</t>
+  </si>
+  <si>
+    <t>TotGoednabDyr_kt_år_pot</t>
+  </si>
+  <si>
+    <t>TotGoedningabDyr_kt_år_udbr</t>
+  </si>
+  <si>
+    <t>biogas</t>
+  </si>
+  <si>
+    <t>svin</t>
+  </si>
+  <si>
+    <t>kvæg</t>
+  </si>
+  <si>
+    <t>fakkel</t>
+  </si>
+  <si>
+    <t>forsuring</t>
+  </si>
+  <si>
+    <t>køling</t>
+  </si>
+  <si>
+    <t>køling_biogas</t>
+  </si>
+  <si>
+    <t>lavdosis</t>
+  </si>
+  <si>
+    <t>linespil</t>
+  </si>
+  <si>
+    <t>oxidation</t>
+  </si>
+  <si>
+    <t>ugentlig</t>
+  </si>
+  <si>
+    <t>ugentlig_biogas</t>
+  </si>
+  <si>
+    <t>ugentlig_fakkel</t>
+  </si>
+  <si>
+    <t>ugentlig_lavdosis</t>
+  </si>
+  <si>
+    <t>ugentlig_oxidation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -112,6 +132,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -393,14 +422,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,330 +448,336 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>12567.5623329173</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3141.89058322933</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="C2">
+        <v>12567.562332917299</v>
+      </c>
+      <c r="D2">
+        <v>3141.8905832293299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>10746.0999638823</v>
       </c>
-      <c r="D3" t="n">
-        <v>4827.9579547877</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="D3">
+        <v>4827.9579547877001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>15709.4529161466</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>15574.05791867</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="n">
-        <v>15352.3363653232</v>
-      </c>
-      <c r="D6" t="n">
-        <v>357.1165508235</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="C6">
+        <v>15352.336365323201</v>
+      </c>
+      <c r="D6">
+        <v>357.11655082350001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="n">
-        <v>6850.87325992317</v>
-      </c>
-      <c r="D7" t="n">
-        <v>451.114122566825</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="C7">
+        <v>6850.8732599231698</v>
+      </c>
+      <c r="D7">
+        <v>451.11412256682502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>14730.5081101332</v>
       </c>
-      <c r="D8" t="n">
-        <v>978.944806013418</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="D8">
+        <v>978.94480601341797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>12253.3732745944</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>3456.07964155226</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>15709.4529161466</v>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>15574.05791867</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>10571.530990656</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>1085.95563365066</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>15709.4529161466</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>15574.05791867</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" t="n">
-        <v>13902.7031296754</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15">
+        <v>13902.703129675399</v>
+      </c>
+      <c r="D15">
         <v>1085.95563365066</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" t="n">
-        <v>7301.98738249</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="C16">
+        <v>7301.9873824899996</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C17" t="n">
-        <v>11122.1625037403</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3866.49625958574</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="C17">
+        <v>11122.162503740299</v>
+      </c>
+      <c r="D17">
+        <v>3866.4962595857401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" t="n">
-        <v>5038.3712939181</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18">
+        <v>5038.3712939180996</v>
+      </c>
+      <c r="D18">
         <v>2263.6160885719</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19" t="n">
-        <v>13902.7031296754</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19">
+        <v>13902.703129675399</v>
+      </c>
+      <c r="D19">
         <v>1085.95563365066</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C20" t="n">
-        <v>7301.98738249</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="C20">
+        <v>7301.9873824899996</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="C21" t="n">
-        <v>13902.7031296754</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21">
+        <v>13902.703129675399</v>
+      </c>
+      <c r="D21">
         <v>1085.95563365066</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C22" t="n">
-        <v>7301.98738249</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="C22">
+        <v>7301.9873824899996</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
-      <c r="C23" t="n">
-        <v>13902.7031296754</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23">
+        <v>13902.703129675399</v>
+      </c>
+      <c r="D23">
         <v>1085.95563365066</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C24" t="n">
-        <v>7301.98738249</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
+      <c r="C24">
+        <v>7301.9873824899996</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <f>SUM(C2:C3)</f>
+        <v>23313.662296799601</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/output/udbred_poten_kt_Goedn_år.xlsx
+++ b/output/udbred_poten_kt_Goedn_år.xlsx
@@ -1,102 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2025-KVIK/output/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_C2CE303C0009E1CDF0063EE4FFD22BD1A299A7A1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1915DB2F-D1B9-4977-A14B-A604CD7F554C}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="19">
-  <si>
-    <t>Scenarie</t>
-  </si>
-  <si>
-    <t>Dyr</t>
-  </si>
-  <si>
-    <t>TotGoednabDyr_kt_år_pot</t>
-  </si>
-  <si>
-    <t>TotGoedningabDyr_kt_år_udbr</t>
-  </si>
-  <si>
-    <t>biogas</t>
-  </si>
-  <si>
-    <t>svin</t>
-  </si>
-  <si>
-    <t>kvæg</t>
-  </si>
-  <si>
-    <t>fakkel</t>
-  </si>
-  <si>
-    <t>forsuring</t>
-  </si>
-  <si>
-    <t>køling</t>
-  </si>
-  <si>
-    <t>køling_biogas</t>
-  </si>
-  <si>
-    <t>lavdosis</t>
-  </si>
-  <si>
-    <t>linespil</t>
-  </si>
-  <si>
-    <t>oxidation</t>
-  </si>
-  <si>
-    <t>ugentlig</t>
-  </si>
-  <si>
-    <t>ugentlig_biogas</t>
-  </si>
-  <si>
-    <t>ugentlig_fakkel</t>
-  </si>
-  <si>
-    <t>ugentlig_lavdosis</t>
-  </si>
-  <si>
-    <t>ugentlig_oxidation</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t xml:space="preserve">Scenarie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dyr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotGoednabDyr_kt_år_pot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotGoedningabDyr_kt_år_udbr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biogas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">svin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kvæg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fakkel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forsuring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">køling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">køling_biogas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lavdosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linespil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oxidation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ugentlig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ugentlig_biogas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ugentlig_fakkel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ugentlig_lavdosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ugentlig_oxidation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -132,15 +112,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -422,19 +393,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,336 +414,330 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>12567.562332917299</v>
-      </c>
-      <c r="D2">
-        <v>3141.8905832293299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="n">
+        <v>12567.5623329173</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3141.89058322933</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>10746.0999638823</v>
       </c>
-      <c r="D3">
-        <v>4827.9579547877001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="n">
+        <v>4827.9579547877</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>15709.4529161466</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>15574.05791867</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>15352.336365323201</v>
-      </c>
-      <c r="D6">
-        <v>357.11655082350001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="n">
+        <v>15352.3363653232</v>
+      </c>
+      <c r="D6" t="n">
+        <v>357.1165508235</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>6850.8732599231698</v>
-      </c>
-      <c r="D7">
-        <v>451.11412256682502</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="n">
+        <v>6850.87325992317</v>
+      </c>
+      <c r="D7" t="n">
+        <v>451.114122566825</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>14730.5081101332</v>
       </c>
-      <c r="D8">
-        <v>978.94480601341797</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="n">
+        <v>978.944806013418</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>12253.3732745944</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>3456.07964155226</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>15709.4529161466</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>15574.05791867</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>10571.530990656</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>1085.95563365066</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>15709.4529161466</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>15574.05791867</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C15">
-        <v>13902.703129675399</v>
-      </c>
-      <c r="D15">
+      <c r="C15" t="n">
+        <v>13902.7031296754</v>
+      </c>
+      <c r="D15" t="n">
         <v>1085.95563365066</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16">
-        <v>7301.9873824899996</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" t="n">
+        <v>7301.98738249</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="C17">
-        <v>11122.162503740299</v>
-      </c>
-      <c r="D17">
-        <v>3866.4962595857401</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="n">
+        <v>11122.1625037403</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3866.49625958574</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18">
-        <v>5038.3712939180996</v>
-      </c>
-      <c r="D18">
+      <c r="C18" t="n">
+        <v>5038.3712939181</v>
+      </c>
+      <c r="D18" t="n">
         <v>2263.6160885719</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C19">
-        <v>13902.703129675399</v>
-      </c>
-      <c r="D19">
+      <c r="C19" t="n">
+        <v>13902.7031296754</v>
+      </c>
+      <c r="D19" t="n">
         <v>1085.95563365066</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>16</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C20">
-        <v>7301.9873824899996</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" t="n">
+        <v>7301.98738249</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="C21">
-        <v>13902.703129675399</v>
-      </c>
-      <c r="D21">
+      <c r="C21" t="n">
+        <v>13902.7031296754</v>
+      </c>
+      <c r="D21" t="n">
         <v>1085.95563365066</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C22">
-        <v>7301.9873824899996</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="n">
+        <v>7301.98738249</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
-      <c r="C23">
-        <v>13902.703129675399</v>
-      </c>
-      <c r="D23">
+      <c r="C23" t="n">
+        <v>13902.7031296754</v>
+      </c>
+      <c r="D23" t="n">
         <v>1085.95563365066</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C24">
-        <v>7301.9873824899996</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C31">
-        <f>SUM(C2:C3)</f>
-        <v>23313.662296799601</v>
+      <c r="C24" t="n">
+        <v>7301.98738249</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>